--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H2">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I2">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J2">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.399594442798</v>
+        <v>143.0191385</v>
       </c>
       <c r="N2">
-        <v>141.399594442798</v>
+        <v>286.038277</v>
       </c>
       <c r="O2">
-        <v>0.5657928619958436</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P2">
-        <v>0.5657928619958436</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q2">
-        <v>317.634172384271</v>
+        <v>321.734423778215</v>
       </c>
       <c r="R2">
-        <v>317.634172384271</v>
+        <v>1286.93769511286</v>
       </c>
       <c r="S2">
-        <v>0.02417329154020002</v>
+        <v>0.02190165678699725</v>
       </c>
       <c r="T2">
-        <v>0.02417329154020002</v>
+        <v>0.01289704722126398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H3">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I3">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J3">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.11452145892454</v>
+        <v>0.038432</v>
       </c>
       <c r="N3">
-        <v>3.11452145892454</v>
+        <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.01246236961949179</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P3">
-        <v>0.01246236961949179</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q3">
-        <v>6.996331565708648</v>
+        <v>0.08645624288000001</v>
       </c>
       <c r="R3">
-        <v>6.996331565708648</v>
+        <v>0.51873745728</v>
       </c>
       <c r="S3">
-        <v>0.0005324501497438822</v>
+        <v>5.885397454256642E-06</v>
       </c>
       <c r="T3">
-        <v>0.0005324501497438822</v>
+        <v>5.198527875424352E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H4">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I4">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J4">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.93606295157313</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N4">
-        <v>4.93606295157313</v>
+        <v>9.501127</v>
       </c>
       <c r="O4">
-        <v>0.01975104097976753</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P4">
-        <v>0.01975104097976753</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q4">
-        <v>11.08816667146707</v>
+        <v>7.124546762643333</v>
       </c>
       <c r="R4">
-        <v>11.08816667146707</v>
+        <v>42.74728057586</v>
       </c>
       <c r="S4">
-        <v>0.0008438559478148131</v>
+        <v>0.0004849943507005365</v>
       </c>
       <c r="T4">
-        <v>0.0008438559478148131</v>
+        <v>0.000428391909150768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H5">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I5">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J5">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.099109079072</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N5">
-        <v>100.099109079072</v>
+        <v>15.391724</v>
       </c>
       <c r="O5">
-        <v>0.4005341149121445</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P5">
-        <v>0.4005341149121445</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q5">
-        <v>224.8584785127956</v>
+        <v>11.54168946438667</v>
       </c>
       <c r="R5">
-        <v>224.8584785127956</v>
+        <v>69.25013678632</v>
       </c>
       <c r="S5">
-        <v>0.01711267246711637</v>
+        <v>0.0007856856547167368</v>
       </c>
       <c r="T5">
-        <v>0.01711267246711637</v>
+        <v>0.0006939903055165662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H6">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I6">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J6">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.364777692300393</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N6">
-        <v>0.364777692300393</v>
+        <v>312.62056</v>
       </c>
       <c r="O6">
-        <v>0.001459612492752738</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P6">
-        <v>0.001459612492752738</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q6">
-        <v>0.8194214478101077</v>
+        <v>234.4226951901333</v>
       </c>
       <c r="R6">
-        <v>0.8194214478101077</v>
+        <v>1406.5361711408</v>
       </c>
       <c r="S6">
-        <v>6.236140590138661E-05</v>
+        <v>0.01595802324427809</v>
       </c>
       <c r="T6">
-        <v>6.236140590138661E-05</v>
+        <v>0.01409560345190441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.755281683898</v>
+        <v>2.24959</v>
       </c>
       <c r="H7">
-        <v>16.755281683898</v>
+        <v>4.49918</v>
       </c>
       <c r="I7">
-        <v>0.3186772079948267</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J7">
-        <v>0.3186772079948267</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.399594442798</v>
+        <v>0.427696</v>
       </c>
       <c r="N7">
-        <v>141.399594442798</v>
+        <v>0.855392</v>
       </c>
       <c r="O7">
-        <v>0.5657928619958436</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P7">
-        <v>0.5657928619958436</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q7">
-        <v>2369.190034878019</v>
+        <v>0.96214064464</v>
       </c>
       <c r="R7">
-        <v>2369.190034878019</v>
+        <v>3.84856257856</v>
       </c>
       <c r="S7">
-        <v>0.1803052895642377</v>
+        <v>6.549648599073036E-05</v>
       </c>
       <c r="T7">
-        <v>0.1803052895642377</v>
+        <v>3.856837319954714E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H8">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J8">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.11452145892454</v>
+        <v>143.0191385</v>
       </c>
       <c r="N8">
-        <v>3.11452145892454</v>
+        <v>286.038277</v>
       </c>
       <c r="O8">
-        <v>0.01246236961949179</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P8">
-        <v>0.01246236961949179</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q8">
-        <v>52.18468435482563</v>
+        <v>2600.469942048933</v>
       </c>
       <c r="R8">
-        <v>52.18468435482563</v>
+        <v>15602.8196522936</v>
       </c>
       <c r="S8">
-        <v>0.003971473155339195</v>
+        <v>0.1770236441808898</v>
       </c>
       <c r="T8">
-        <v>0.003971473155339195</v>
+        <v>0.1563636705993363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H9">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J9">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.93606295157313</v>
+        <v>0.038432</v>
       </c>
       <c r="N9">
-        <v>4.93606295157313</v>
+        <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.01975104097976753</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P9">
-        <v>0.01975104097976753</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q9">
-        <v>82.70512516306077</v>
+        <v>0.698796411872</v>
       </c>
       <c r="R9">
-        <v>82.70512516306077</v>
+        <v>6.289167706848</v>
       </c>
       <c r="S9">
-        <v>0.006294206594423724</v>
+        <v>4.756966630140874E-05</v>
       </c>
       <c r="T9">
-        <v>0.006294206594423724</v>
+        <v>6.302689959715102E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H10">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J10">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.099109079072</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N10">
-        <v>100.099109079072</v>
+        <v>9.501127</v>
       </c>
       <c r="O10">
-        <v>0.4005341149121445</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P10">
-        <v>0.4005341149121445</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q10">
-        <v>1677.188768927083</v>
+        <v>57.58528879007233</v>
       </c>
       <c r="R10">
-        <v>1677.188768927083</v>
+        <v>518.267599110651</v>
       </c>
       <c r="S10">
-        <v>0.1276410934468813</v>
+        <v>0.003920044415047397</v>
       </c>
       <c r="T10">
-        <v>0.1276410934468813</v>
+        <v>0.005193819191375075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H11">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J11">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.364777692300393</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N11">
-        <v>0.364777692300393</v>
+        <v>15.391724</v>
       </c>
       <c r="O11">
-        <v>0.001459612492752738</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P11">
-        <v>0.001459612492752738</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q11">
-        <v>6.111952986495355</v>
+        <v>93.28755120493467</v>
       </c>
       <c r="R11">
-        <v>6.111952986495355</v>
+        <v>839.587960844412</v>
       </c>
       <c r="S11">
-        <v>0.0004651452339448117</v>
+        <v>0.006350429975744034</v>
       </c>
       <c r="T11">
-        <v>0.0004651452339448117</v>
+        <v>0.008413931473555541</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.3879676874018</v>
+        <v>18.182671</v>
       </c>
       <c r="H12">
-        <v>13.3879676874018</v>
+        <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.2546325537126753</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J12">
-        <v>0.2546325537126753</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>141.399594442798</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N12">
-        <v>141.399594442798</v>
+        <v>312.62056</v>
       </c>
       <c r="O12">
-        <v>0.5657928619958436</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P12">
-        <v>0.5657928619958436</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q12">
-        <v>1893.053201411898</v>
+        <v>1894.758930105254</v>
       </c>
       <c r="R12">
-        <v>1893.053201411898</v>
+        <v>17052.83037094728</v>
       </c>
       <c r="S12">
-        <v>0.1440692813224049</v>
+        <v>0.1289832753795408</v>
       </c>
       <c r="T12">
-        <v>0.1440692813224049</v>
+        <v>0.1708949542666279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.3879676874018</v>
+        <v>18.182671</v>
       </c>
       <c r="H13">
-        <v>13.3879676874018</v>
+        <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.2546325537126753</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J13">
-        <v>0.2546325537126753</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.11452145892454</v>
+        <v>0.427696</v>
       </c>
       <c r="N13">
-        <v>3.11452145892454</v>
+        <v>0.855392</v>
       </c>
       <c r="O13">
-        <v>0.01246236961949179</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P13">
-        <v>0.01246236961949179</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q13">
-        <v>41.69711265380125</v>
+        <v>7.776655656016</v>
       </c>
       <c r="R13">
-        <v>41.69711265380125</v>
+        <v>46.659933936096</v>
       </c>
       <c r="S13">
-        <v>0.003173325001522456</v>
+        <v>0.0005293858242726715</v>
       </c>
       <c r="T13">
-        <v>0.003173325001522456</v>
+        <v>0.0004676025681741448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H14">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I14">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J14">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.93606295157313</v>
+        <v>143.0191385</v>
       </c>
       <c r="N14">
-        <v>4.93606295157313</v>
+        <v>286.038277</v>
       </c>
       <c r="O14">
-        <v>0.01975104097976753</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P14">
-        <v>0.01975104097976753</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q14">
-        <v>66.08385129864222</v>
+        <v>2093.290705795617</v>
       </c>
       <c r="R14">
-        <v>66.08385129864222</v>
+        <v>12559.7442347737</v>
       </c>
       <c r="S14">
-        <v>0.005029258003161906</v>
+        <v>0.1424980704748919</v>
       </c>
       <c r="T14">
-        <v>0.005029258003161906</v>
+        <v>0.1258674876787015</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H15">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I15">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J15">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>100.099109079072</v>
+        <v>0.038432</v>
       </c>
       <c r="N15">
-        <v>100.099109079072</v>
+        <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.4005341149121445</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P15">
-        <v>0.4005341149121445</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q15">
-        <v>1340.123637888324</v>
+        <v>0.5625075724053333</v>
       </c>
       <c r="R15">
-        <v>1340.123637888324</v>
+        <v>5.062568151648</v>
       </c>
       <c r="S15">
-        <v>0.1019890245291255</v>
+        <v>3.829197897518483E-05</v>
       </c>
       <c r="T15">
-        <v>0.1019890245291255</v>
+        <v>5.073453109705165E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H16">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I16">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J16">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.364777692300393</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N16">
-        <v>0.364777692300393</v>
+        <v>9.501127</v>
       </c>
       <c r="O16">
-        <v>0.001459612492752738</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P16">
-        <v>0.001459612492752738</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q16">
-        <v>4.883631957602657</v>
+        <v>46.35421769952789</v>
       </c>
       <c r="R16">
-        <v>4.883631957602657</v>
+        <v>417.187959295751</v>
       </c>
       <c r="S16">
-        <v>0.0003716648564605534</v>
+        <v>0.003155503706325986</v>
       </c>
       <c r="T16">
-        <v>0.0003716648564605534</v>
+        <v>0.004180849493811902</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.2252887397804</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H17">
-        <v>10.2252887397804</v>
+        <v>43.909313</v>
       </c>
       <c r="I17">
-        <v>0.1944799573059804</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J17">
-        <v>0.1944799573059804</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>141.399594442798</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N17">
-        <v>141.399594442798</v>
+        <v>15.391724</v>
       </c>
       <c r="O17">
-        <v>0.5657928619958436</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P17">
-        <v>0.5657928619958436</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q17">
-        <v>1445.851680865457</v>
+        <v>75.09333630284577</v>
       </c>
       <c r="R17">
-        <v>1445.851680865457</v>
+        <v>675.840026725612</v>
       </c>
       <c r="S17">
-        <v>0.1100353716449801</v>
+        <v>0.005111882214472729</v>
       </c>
       <c r="T17">
-        <v>0.1100353716449801</v>
+        <v>0.006772931410588713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.2252887397804</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H18">
-        <v>10.2252887397804</v>
+        <v>43.909313</v>
       </c>
       <c r="I18">
-        <v>0.1944799573059804</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J18">
-        <v>0.1944799573059804</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11452145892454</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N18">
-        <v>3.11452145892454</v>
+        <v>312.62056</v>
       </c>
       <c r="O18">
-        <v>0.01246236961949179</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P18">
-        <v>0.01246236961949179</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q18">
-        <v>31.84688120374552</v>
+        <v>1525.217113252809</v>
       </c>
       <c r="R18">
-        <v>31.84688120374552</v>
+        <v>13726.95401927528</v>
       </c>
       <c r="S18">
-        <v>0.00242368111153011</v>
+        <v>0.1038271918429998</v>
       </c>
       <c r="T18">
-        <v>0.00242368111153011</v>
+        <v>0.1375646815405366</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.2252887397804</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H19">
-        <v>10.2252887397804</v>
+        <v>43.909313</v>
       </c>
       <c r="I19">
-        <v>0.1944799573059804</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J19">
-        <v>0.1944799573059804</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.93606295157313</v>
+        <v>0.427696</v>
       </c>
       <c r="N19">
-        <v>4.93606295157313</v>
+        <v>0.855392</v>
       </c>
       <c r="O19">
-        <v>0.01975104097976753</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P19">
-        <v>0.01975104097976753</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q19">
-        <v>50.47266891756793</v>
+        <v>6.259945844282667</v>
       </c>
       <c r="R19">
-        <v>50.47266891756793</v>
+        <v>37.559675065696</v>
       </c>
       <c r="S19">
-        <v>0.003841181606493858</v>
+        <v>0.0004261377560306685</v>
       </c>
       <c r="T19">
-        <v>0.003841181606493858</v>
+        <v>0.000376404316057532</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H20">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I20">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J20">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.099109079072</v>
+        <v>143.0191385</v>
       </c>
       <c r="N20">
-        <v>100.099109079072</v>
+        <v>286.038277</v>
       </c>
       <c r="O20">
-        <v>0.4005341149121445</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P20">
-        <v>0.4005341149121445</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q20">
-        <v>1023.542292928285</v>
+        <v>1484.430058430832</v>
       </c>
       <c r="R20">
-        <v>1023.542292928285</v>
+        <v>8906.580350584994</v>
       </c>
       <c r="S20">
-        <v>0.07789585756770248</v>
+        <v>0.101050665583941</v>
       </c>
       <c r="T20">
-        <v>0.07789585756770248</v>
+        <v>0.08925730266328319</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H21">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I21">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J21">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.364777692300393</v>
+        <v>0.038432</v>
       </c>
       <c r="N21">
-        <v>0.364777692300393</v>
+        <v>0.115296</v>
       </c>
       <c r="O21">
-        <v>0.001459612492752738</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P21">
-        <v>0.001459612492752738</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q21">
-        <v>3.729957229602288</v>
+        <v>0.3988949773013333</v>
       </c>
       <c r="R21">
-        <v>3.729957229602288</v>
+        <v>3.590054795712</v>
       </c>
       <c r="S21">
-        <v>0.000283865375273828</v>
+        <v>2.715426215297766E-05</v>
       </c>
       <c r="T21">
-        <v>0.000283865375273828</v>
+        <v>3.597773723083187E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.60953585566889</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H22">
-        <v>1.60953585566889</v>
+        <v>31.137722</v>
       </c>
       <c r="I22">
-        <v>0.03061257950351559</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J22">
-        <v>0.03061257950351559</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>141.399594442798</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N22">
-        <v>141.399594442798</v>
+        <v>9.501127</v>
       </c>
       <c r="O22">
-        <v>0.5657928619958436</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P22">
-        <v>0.5657928619958436</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q22">
-        <v>227.5877172327229</v>
+        <v>32.87149457918822</v>
       </c>
       <c r="R22">
-        <v>227.5877172327229</v>
+        <v>295.843451212694</v>
       </c>
       <c r="S22">
-        <v>0.01732037897036939</v>
+        <v>0.002237684683828877</v>
       </c>
       <c r="T22">
-        <v>0.01732037897036939</v>
+        <v>0.002964795401425565</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.60953585566889</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H23">
-        <v>1.60953585566889</v>
+        <v>31.137722</v>
       </c>
       <c r="I23">
-        <v>0.03061257950351559</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J23">
-        <v>0.03061257950351559</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.11452145892454</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N23">
-        <v>3.11452145892454</v>
+        <v>15.391724</v>
       </c>
       <c r="O23">
-        <v>0.01246236961949179</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P23">
-        <v>0.01246236961949179</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q23">
-        <v>5.012933961389229</v>
+        <v>53.25146922363644</v>
       </c>
       <c r="R23">
-        <v>5.012933961389229</v>
+        <v>479.263223012728</v>
       </c>
       <c r="S23">
-        <v>0.0003815052807788898</v>
+        <v>0.003625025226220147</v>
       </c>
       <c r="T23">
-        <v>0.0003815052807788898</v>
+        <v>0.004802936802677356</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.60953585566889</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H24">
-        <v>1.60953585566889</v>
+        <v>31.137722</v>
       </c>
       <c r="I24">
-        <v>0.03061257950351559</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J24">
-        <v>0.03061257950351559</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.93606295157313</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N24">
-        <v>4.93606295157313</v>
+        <v>312.62056</v>
       </c>
       <c r="O24">
-        <v>0.01975104097976753</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P24">
-        <v>0.01975104097976753</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q24">
-        <v>7.944770306395765</v>
+        <v>1081.588009862702</v>
       </c>
       <c r="R24">
-        <v>7.944770306395765</v>
+        <v>9734.292088764321</v>
       </c>
       <c r="S24">
-        <v>0.0006046303122703281</v>
+        <v>0.07362771163484148</v>
       </c>
       <c r="T24">
-        <v>0.0006046303122703281</v>
+        <v>0.09755221656116003</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.60953585566889</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H25">
-        <v>1.60953585566889</v>
+        <v>31.137722</v>
       </c>
       <c r="I25">
-        <v>0.03061257950351559</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J25">
-        <v>0.03061257950351559</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>100.099109079072</v>
+        <v>0.427696</v>
       </c>
       <c r="N25">
-        <v>100.099109079072</v>
+        <v>0.855392</v>
       </c>
       <c r="O25">
-        <v>0.4005341149121445</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P25">
-        <v>0.4005341149121445</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q25">
-        <v>161.1131051832777</v>
+        <v>4.439159716170667</v>
       </c>
       <c r="R25">
-        <v>161.1131051832777</v>
+        <v>26.634958297024</v>
       </c>
       <c r="S25">
-        <v>0.01226138243661827</v>
+        <v>0.0003021900839347402</v>
       </c>
       <c r="T25">
-        <v>0.01226138243661827</v>
+        <v>0.0002669222575402072</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H26">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I26">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J26">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.364777692300393</v>
+        <v>143.0191385</v>
       </c>
       <c r="N26">
-        <v>0.364777692300393</v>
+        <v>286.038277</v>
       </c>
       <c r="O26">
-        <v>0.001459612492752738</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P26">
-        <v>0.001459612492752738</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q26">
-        <v>0.587122775105636</v>
+        <v>258.9472580740069</v>
       </c>
       <c r="R26">
-        <v>0.587122775105636</v>
+        <v>1553.683548444041</v>
       </c>
       <c r="S26">
-        <v>4.468250347871777E-05</v>
+        <v>0.01762750129647431</v>
       </c>
       <c r="T26">
-        <v>4.468250347871777E-05</v>
+        <v>0.01557024102042992</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.353164181774471</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H27">
-        <v>8.353164181774471</v>
+        <v>5.431733</v>
       </c>
       <c r="I27">
-        <v>0.1588730699722258</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J27">
-        <v>0.1588730699722258</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>141.399594442798</v>
+        <v>0.038432</v>
       </c>
       <c r="N27">
-        <v>141.399594442798</v>
+        <v>0.115296</v>
       </c>
       <c r="O27">
-        <v>0.5657928619958436</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P27">
-        <v>0.5657928619958436</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q27">
-        <v>1181.134027617017</v>
+        <v>0.06958412088533335</v>
       </c>
       <c r="R27">
-        <v>1181.134027617017</v>
+        <v>0.6262570879680001</v>
       </c>
       <c r="S27">
-        <v>0.08988924895365152</v>
+        <v>4.736849465962213E-06</v>
       </c>
       <c r="T27">
-        <v>0.08988924895365152</v>
+        <v>6.276035947075321E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.353164181774471</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H28">
-        <v>8.353164181774471</v>
+        <v>5.431733</v>
       </c>
       <c r="I28">
-        <v>0.1588730699722258</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J28">
-        <v>0.1588730699722258</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.11452145892454</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N28">
-        <v>3.11452145892454</v>
+        <v>9.501127</v>
       </c>
       <c r="O28">
-        <v>0.01246236961949179</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P28">
-        <v>0.01246236961949179</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q28">
-        <v>26.01610909405644</v>
+        <v>5.734176118121223</v>
       </c>
       <c r="R28">
-        <v>26.01610909405644</v>
+        <v>51.60758506309101</v>
       </c>
       <c r="S28">
-        <v>0.001979934920577259</v>
+        <v>0.0003903466586524178</v>
       </c>
       <c r="T28">
-        <v>0.001979934920577259</v>
+        <v>0.0005171854582095468</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.353164181774471</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H29">
-        <v>8.353164181774471</v>
+        <v>5.431733</v>
       </c>
       <c r="I29">
-        <v>0.1588730699722258</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J29">
-        <v>0.1588730699722258</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.93606295157313</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N29">
-        <v>4.93606295157313</v>
+        <v>15.391724</v>
       </c>
       <c r="O29">
-        <v>0.01975104097976753</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P29">
-        <v>0.01975104097976753</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q29">
-        <v>41.23174424606464</v>
+        <v>9.289303908632446</v>
       </c>
       <c r="R29">
-        <v>41.23174424606464</v>
+        <v>83.603735177692</v>
       </c>
       <c r="S29">
-        <v>0.003137908515602905</v>
+        <v>0.0006323574071055179</v>
       </c>
       <c r="T29">
-        <v>0.003137908515602905</v>
+        <v>0.000837834904172408</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.353164181774471</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H30">
-        <v>8.353164181774471</v>
+        <v>5.431733</v>
       </c>
       <c r="I30">
-        <v>0.1588730699722258</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J30">
-        <v>0.1588730699722258</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>100.099109079072</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N30">
-        <v>100.099109079072</v>
+        <v>312.62056</v>
       </c>
       <c r="O30">
-        <v>0.4005341149121445</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P30">
-        <v>0.4005341149121445</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q30">
-        <v>836.1442925868399</v>
+        <v>188.6746013589423</v>
       </c>
       <c r="R30">
-        <v>836.1442925868399</v>
+        <v>1698.07141223048</v>
       </c>
       <c r="S30">
-        <v>0.06363408446470063</v>
+        <v>0.01284378064013329</v>
       </c>
       <c r="T30">
-        <v>0.06363408446470063</v>
+        <v>0.01701722412186735</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.353164181774471</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H31">
-        <v>8.353164181774471</v>
+        <v>5.431733</v>
       </c>
       <c r="I31">
-        <v>0.1588730699722258</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J31">
-        <v>0.1588730699722258</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.364777692300393</v>
+        <v>0.427696</v>
       </c>
       <c r="N31">
-        <v>0.364777692300393</v>
+        <v>0.855392</v>
       </c>
       <c r="O31">
-        <v>0.001459612492752738</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P31">
-        <v>0.001459612492752738</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q31">
-        <v>3.047047953633992</v>
+        <v>0.7743768257226668</v>
       </c>
       <c r="R31">
-        <v>3.047047953633992</v>
+        <v>4.646260954336</v>
       </c>
       <c r="S31">
-        <v>0.0002318931176934406</v>
+        <v>5.271470569302079E-05</v>
       </c>
       <c r="T31">
-        <v>0.0002318931176934406</v>
+        <v>4.656250816021938E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>10.126433</v>
+      </c>
+      <c r="H32">
+        <v>20.252866</v>
+      </c>
+      <c r="I32">
+        <v>0.1764649616319262</v>
+      </c>
+      <c r="J32">
+        <v>0.1267556307695262</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>143.0191385</v>
+      </c>
+      <c r="N32">
+        <v>286.038277</v>
+      </c>
+      <c r="O32">
+        <v>0.5586909079605606</v>
+      </c>
+      <c r="P32">
+        <v>0.4580112546679992</v>
+      </c>
+      <c r="Q32">
+        <v>1448.273723737971</v>
+      </c>
+      <c r="R32">
+        <v>5793.094894951882</v>
+      </c>
+      <c r="S32">
+        <v>0.09858936963736632</v>
+      </c>
+      <c r="T32">
+        <v>0.05805550548498433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>10.126433</v>
+      </c>
+      <c r="H33">
+        <v>20.252866</v>
+      </c>
+      <c r="I33">
+        <v>0.1764649616319262</v>
+      </c>
+      <c r="J33">
+        <v>0.1267556307695262</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.038432</v>
+      </c>
+      <c r="N33">
+        <v>0.115296</v>
+      </c>
+      <c r="O33">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P33">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q33">
+        <v>0.389179073056</v>
+      </c>
+      <c r="R33">
+        <v>2.335074438336</v>
+      </c>
+      <c r="S33">
+        <v>2.649286447703824E-05</v>
+      </c>
+      <c r="T33">
+        <v>2.340095049725374E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>10.126433</v>
+      </c>
+      <c r="H34">
+        <v>20.252866</v>
+      </c>
+      <c r="I34">
+        <v>0.1764649616319262</v>
+      </c>
+      <c r="J34">
+        <v>0.1267556307695262</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N34">
+        <v>9.501127</v>
+      </c>
+      <c r="O34">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P34">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q34">
+        <v>32.07084199666367</v>
+      </c>
+      <c r="R34">
+        <v>192.425051979982</v>
+      </c>
+      <c r="S34">
+        <v>0.002183181289811693</v>
+      </c>
+      <c r="T34">
+        <v>0.001928387824340142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>10.126433</v>
+      </c>
+      <c r="H35">
+        <v>20.252866</v>
+      </c>
+      <c r="I35">
+        <v>0.1764649616319262</v>
+      </c>
+      <c r="J35">
+        <v>0.1267556307695262</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N35">
+        <v>15.391724</v>
+      </c>
+      <c r="O35">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P35">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q35">
+        <v>51.95442061349734</v>
+      </c>
+      <c r="R35">
+        <v>311.726523680984</v>
+      </c>
+      <c r="S35">
+        <v>0.003536730311545735</v>
+      </c>
+      <c r="T35">
+        <v>0.003123967625862063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>10.126433</v>
+      </c>
+      <c r="H36">
+        <v>20.252866</v>
+      </c>
+      <c r="I36">
+        <v>0.1764649616319262</v>
+      </c>
+      <c r="J36">
+        <v>0.1267556307695262</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N36">
+        <v>312.62056</v>
+      </c>
+      <c r="O36">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P36">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q36">
+        <v>1055.243718420827</v>
+      </c>
+      <c r="R36">
+        <v>6331.46231052496</v>
+      </c>
+      <c r="S36">
+        <v>0.07183435790327335</v>
+      </c>
+      <c r="T36">
+        <v>0.06345075500436914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>10.126433</v>
+      </c>
+      <c r="H37">
+        <v>20.252866</v>
+      </c>
+      <c r="I37">
+        <v>0.1764649616319262</v>
+      </c>
+      <c r="J37">
+        <v>0.1267556307695262</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.427696</v>
+      </c>
+      <c r="N37">
+        <v>0.855392</v>
+      </c>
+      <c r="O37">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P37">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q37">
+        <v>4.331034888368</v>
+      </c>
+      <c r="R37">
+        <v>17.324139553472</v>
+      </c>
+      <c r="S37">
+        <v>0.0002948296254520022</v>
+      </c>
+      <c r="T37">
+        <v>0.0001736138794732417</v>
       </c>
     </row>
   </sheetData>
